--- a/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_09_output_DCs_seurat_clusters_speed_coherence.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_09_output_DCs_seurat_clusters_speed_coherence.xlsx
@@ -466,19 +466,19 @@
         <v>10.8976354598999</v>
       </c>
       <c r="C2" t="n">
-        <v>6.017205238342285</v>
+        <v>6.017908573150635</v>
       </c>
       <c r="D2" t="n">
-        <v>4.806521415710449</v>
+        <v>4.806475639343262</v>
       </c>
       <c r="E2" t="n">
         <v>3.640677928924561</v>
       </c>
       <c r="F2" t="n">
-        <v>9.597872734069824</v>
+        <v>9.59782886505127</v>
       </c>
       <c r="G2" t="n">
-        <v>13.90557384490967</v>
+        <v>13.9041805267334</v>
       </c>
       <c r="H2" t="n">
         <v>2.936923027038574</v>
@@ -491,25 +491,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9597070351890896</v>
+        <v>0.9597103486890378</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8848957251564563</v>
+        <v>0.8848877191296769</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8989527842000092</v>
+        <v>0.8989505912401038</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8892400130882101</v>
+        <v>0.8892357195332899</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9504065162995282</v>
+        <v>0.9504065540581267</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9657232692984284</v>
+        <v>0.9657593100774483</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7410798500745724</v>
+        <v>0.7410702884961398</v>
       </c>
     </row>
   </sheetData>

--- a/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_09_output_DCs_seurat_clusters_speed_coherence.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_09_output_DCs_seurat_clusters_speed_coherence.xlsx
@@ -434,26 +434,40 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
     </row>
     <row r="2">
